--- a/相关功能表格整理.xlsx
+++ b/相关功能表格整理.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joyce\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0297CABC-AA9D-499E-8467-6AFE59321302}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{66640A8E-82D5-44F3-85E4-B574F33A0D08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="地图模块" sheetId="3" r:id="rId1"/>
@@ -20,9 +14,9 @@
     <sheet name="UIUE需要" sheetId="7" r:id="rId5"/>
     <sheet name="道具-暂时删除" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,34 +33,63 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={3D77F110-0C48-4638-B315-A4E70463675D}</author>
     <author>tc={CF1DE02A-08AB-4AB5-8FC7-B98318E09D8B}</author>
     <author>tc={4623F005-45BB-48DB-929B-73EB150814D2}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{3D77F110-0C48-4638-B315-A4E70463675D}">
+    <comment ref="E1" authorId="0">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     视情况引用新表里的ID
 为0则无技能</t>
+        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{CF1DE02A-08AB-4AB5-8FC7-B98318E09D8B}">
+    <comment ref="F1" authorId="1">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     引用-所有道具模块里的tool_ID
 为0则无道具</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{4623F005-45BB-48DB-929B-73EB150814D2}">
+    <comment ref="I1" authorId="2">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     0为无影响
@@ -74,6 +97,7 @@
 2作用于攻击
 3作用于道具
 4作用于逃跑</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -81,14 +105,23 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={1DCEB9F3-18AF-4F53-8D12-87BE26ED2202}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{1DCEB9F3-18AF-4F53-8D12-87BE26ED2202}">
+    <comment ref="D1" authorId="0">
       <text>
-        <t>[线程批注]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     0为无影响
@@ -96,6 +129,7 @@
 2作用于攻击
 3作用于道具
 4作用于逃跑</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -612,10 +646,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>实习生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>好心的同学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -879,14 +909,18 @@
   </si>
   <si>
     <t>敌人存在回合数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>病毒菌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1225,7 +1259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1267,39 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,6 +1377,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,7 +1450,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC05CFB-CD1B-4DA5-B12E-BA4ABC4F938D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC05CFB-CD1B-4DA5-B12E-BA4ABC4F938D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1422,10 +1459,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="2682" b="96935" l="3462" r="97308">
@@ -1506,7 +1543,7 @@
         <xdr:cNvPr id="5" name="矩形: 圆角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6D34A0-A8C8-472C-939A-9A0E10C5E2A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F6D34A0-A8C8-472C-939A-9A0E10C5E2A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1620,7 @@
         <xdr:cNvPr id="6" name="矩形: 圆角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D5CA8D-D560-476F-AF9C-10ADCA0B6CE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6D5CA8D-D560-476F-AF9C-10ADCA0B6CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1697,7 @@
         <xdr:cNvPr id="7" name="矩形: 圆角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0AE06C-13CF-4424-8A85-E75C82659CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C0AE06C-13CF-4424-8A85-E75C82659CA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1774,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CF4464-0850-48D3-84CE-39D2F68D0882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60CF4464-0850-48D3-84CE-39D2F68D0882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,10 +1783,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -1797,7 +1834,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E097BFD4-3687-4A21-9BA7-3C80B974D794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E097BFD4-3687-4A21-9BA7-3C80B974D794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,10 +1843,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -1862,7 +1899,7 @@
         <xdr:cNvPr id="10" name="箭头: 右 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD44F8D-E8F3-4A66-B4A9-A83EF07FC937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AD44F8D-E8F3-4A66-B4A9-A83EF07FC937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1922,7 +1959,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A1D72D-7D3C-45A8-925A-5E193EE94432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A1D72D-7D3C-45A8-925A-5E193EE94432}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,11 +1968,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
                       <a14:foregroundMark x1="66456" y1="13924" x2="73207" y2="16962"/>
@@ -1987,7 +2024,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99801BC7-B420-4979-AB49-577BA554C6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99801BC7-B420-4979-AB49-577BA554C6CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1996,10 +2033,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2052,7 +2089,7 @@
         <xdr:cNvPr id="17" name="矩形: 圆角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E529EB9-A430-4393-8F2D-E68E510EA2BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E529EB9-A430-4393-8F2D-E68E510EA2BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2152,7 @@
         <xdr:cNvPr id="18" name="矩形: 圆角 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21D38E3-75E5-4090-BA69-50A70FC3C57A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21D38E3-75E5-4090-BA69-50A70FC3C57A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2215,7 @@
         <xdr:cNvPr id="20" name="流程图: 决策 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B6435D-BD75-409D-83FB-E4CC9AB078F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B6435D-BD75-409D-83FB-E4CC9AB078F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2278,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346F9F5B-3221-4F4F-AE86-0A112991CEAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{346F9F5B-3221-4F4F-AE86-0A112991CEAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2297,7 +2334,7 @@
         <xdr:cNvPr id="39" name="流程图: 可选过程 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C95A2B4-A7D1-41A5-9BBD-04F80794150A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C95A2B4-A7D1-41A5-9BBD-04F80794150A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,7 +2397,7 @@
         <xdr:cNvPr id="41" name="直接箭头连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAF7E36-7007-4F66-8BEC-44B11BCE48E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAF7E36-7007-4F66-8BEC-44B11BCE48E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2416,7 +2453,7 @@
         <xdr:cNvPr id="43" name="流程图: 可选过程 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB847CD3-DF23-4A36-AA79-FD3DDF26732C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB847CD3-DF23-4A36-AA79-FD3DDF26732C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2524,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B971A8F-7C65-4B47-9362-C306D5D5329A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B971A8F-7C65-4B47-9362-C306D5D5329A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2580,7 @@
         <xdr:cNvPr id="46" name="矩形: 圆角 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD4004A-BBD4-4823-B230-70178861CC89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD4004A-BBD4-4823-B230-70178861CC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2643,7 @@
         <xdr:cNvPr id="48" name="直接箭头连接符 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17741A14-D91C-4249-B325-B9F4B2679937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17741A14-D91C-4249-B325-B9F4B2679937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2657,7 +2694,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93490920-8EC1-4076-86D3-A45A9D1A9BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93490920-8EC1-4076-86D3-A45A9D1A9BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,11 +2703,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
                       <a14:foregroundMark x1="66456" y1="13924" x2="73207" y2="16962"/>
@@ -2722,7 +2759,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D74526-1914-4061-BF43-D6544EF54D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26D74526-1914-4061-BF43-D6544EF54D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,10 +2768,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2782,7 +2819,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B81192-14F2-40B2-AC38-C291D6159CE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B81192-14F2-40B2-AC38-C291D6159CE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,11 +2828,11 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+                <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
                       <a14:foregroundMark x1="66456" y1="13924" x2="73207" y2="16962"/>
@@ -2847,7 +2884,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D780FD5-1D09-40F5-8ABB-2BBFFB0EFA51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D780FD5-1D09-40F5-8ABB-2BBFFB0EFA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,10 +2893,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2912,7 +2949,7 @@
         <xdr:cNvPr id="42" name="矩形: 圆角 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB18CD5-5BD7-4E9A-BDBB-0DFD61B1E2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DB18CD5-5BD7-4E9A-BDBB-0DFD61B1E2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +3012,7 @@
         <xdr:cNvPr id="47" name="流程图: 可选过程 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53341089-1A31-4111-A0E7-05702B2B209C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53341089-1A31-4111-A0E7-05702B2B209C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3075,7 @@
         <xdr:cNvPr id="49" name="矩形: 圆角 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46CB219-1FC5-4401-ADAA-3F8D97DE27D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D46CB219-1FC5-4401-ADAA-3F8D97DE27D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3101,7 +3138,7 @@
         <xdr:cNvPr id="50" name="流程图: 可选过程 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732C4F12-13BB-46BE-9515-72D6BA7F3F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{732C4F12-13BB-46BE-9515-72D6BA7F3F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3164,7 +3201,7 @@
         <xdr:cNvPr id="54" name="流程图: 决策 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D4F0EC-27F2-45D7-969F-F3093645D98B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D4F0EC-27F2-45D7-969F-F3093645D98B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3227,7 +3264,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF883C65-FB31-4B6C-A0AB-E2DD54758ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF883C65-FB31-4B6C-A0AB-E2DD54758ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3320,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C4C5A-C19F-401F-99A3-C9EA1A646193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C4C5A-C19F-401F-99A3-C9EA1A646193}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3342,7 +3379,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410FF488-28B2-4278-A88C-500C380765EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410FF488-28B2-4278-A88C-500C380765EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3398,7 +3435,7 @@
         <xdr:cNvPr id="59" name="流程图: 可选过程 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C366BECB-E9E6-4E81-9BA4-1A04456B50D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C366BECB-E9E6-4E81-9BA4-1A04456B50D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,7 +3498,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEF7D2E-6DF5-44D4-BDEA-354F3C75D00A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEF7D2E-6DF5-44D4-BDEA-354F3C75D00A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3554,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A578564-F81C-40E6-90C5-6B3E133333E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A578564-F81C-40E6-90C5-6B3E133333E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3610,7 @@
         <xdr:cNvPr id="94" name="流程图: 决策 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E9B25-EECF-423F-83E8-42272008F03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A0E9B25-EECF-423F-83E8-42272008F03B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3673,7 @@
         <xdr:cNvPr id="101" name="直接箭头连接符 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8429CF0-D1D5-4F12-9F9A-6191A411C545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8429CF0-D1D5-4F12-9F9A-6191A411C545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3692,7 +3729,7 @@
         <xdr:cNvPr id="109" name="直接箭头连接符 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151AA652-E69E-44A5-81E2-B5AFF765C2D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{151AA652-E69E-44A5-81E2-B5AFF765C2D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3751,7 +3788,7 @@
         <xdr:cNvPr id="110" name="矩形: 圆角 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F13AB9-F104-443B-81A4-423504373598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5F13AB9-F104-443B-81A4-423504373598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3814,7 +3851,7 @@
         <xdr:cNvPr id="114" name="直接箭头连接符 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBD9A1C-A7BD-4DD8-8BBB-A2F3B168B16D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DBD9A1C-A7BD-4DD8-8BBB-A2F3B168B16D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3902,7 @@
         <xdr:cNvPr id="136" name="图片 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9150A3AF-ACD4-477C-ABD9-F718D54E3001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9150A3AF-ACD4-477C-ABD9-F718D54E3001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3874,10 +3911,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -3930,7 +3967,7 @@
         <xdr:cNvPr id="137" name="矩形: 圆角 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B513B8D6-2A89-439C-A828-7D639DA312B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B513B8D6-2A89-439C-A828-7D639DA312B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3993,7 +4030,7 @@
         <xdr:cNvPr id="138" name="矩形: 圆角 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506E9C63-D234-4FDF-9B0C-5A8CF82F3E51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506E9C63-D234-4FDF-9B0C-5A8CF82F3E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4056,7 +4093,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEFDC2B-3F91-4DEA-99B9-E0C12D368129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEFDC2B-3F91-4DEA-99B9-E0C12D368129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4065,10 +4102,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -4121,7 +4158,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69763428-2574-4716-8FFF-26B40988DDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69763428-2574-4716-8FFF-26B40988DDC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4130,7 +4167,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4165,7 +4202,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BBA412-DDB8-476B-9EB9-77E47706DD6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BBA412-DDB8-476B-9EB9-77E47706DD6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4231,7 +4268,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52A1879-3FAB-4A80-86AD-87804DC11DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52A1879-3FAB-4A80-86AD-87804DC11DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4286,7 +4323,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0F30C1-E4B0-4BD4-8883-64A94AEECBCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E0F30C1-E4B0-4BD4-8883-64A94AEECBCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4352,7 +4389,7 @@
         <xdr:cNvPr id="11" name="直接箭头连接符 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1592332A-D688-4785-8639-69E977A3F2A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1592332A-D688-4785-8639-69E977A3F2A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4405,7 +4442,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF2B190-0ECF-4FD6-8F4C-782820C70331}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AF2B190-0ECF-4FD6-8F4C-782820C70331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,7 +4546,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4561,7 +4598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4755,7 +4792,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4794,51 +4831,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5589D2F3-B8EA-45FC-872F-7A6B9F07C491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="56.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="56.1" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" s="27"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
-    </row>
-    <row r="3" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T2" s="16"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="18"/>
+    </row>
+    <row r="3" spans="1:40" ht="27.9" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4848,29 +4885,29 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="33"/>
-    </row>
-    <row r="4" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T3" s="19"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="22"/>
+    </row>
+    <row r="4" spans="1:40" ht="27.9" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4880,33 +4917,33 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44" t="s">
+      <c r="T4" s="19"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="34" t="s">
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="33"/>
-    </row>
-    <row r="5" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="22"/>
+    </row>
+    <row r="5" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4916,181 +4953,181 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="45" t="s">
+      <c r="T5" s="19"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="34" t="s">
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="33"/>
-    </row>
-    <row r="6" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="22"/>
+    </row>
+    <row r="6" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="15" t="s">
+      <c r="T6" s="19"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="45" t="s">
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="43"/>
-      <c r="AF6" s="43"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="34" t="s">
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="33"/>
-    </row>
-    <row r="7" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="22"/>
+    </row>
+    <row r="7" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="45" t="s">
+      <c r="T7" s="19"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="43"/>
-      <c r="AL7" s="34" t="s">
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="AM7" s="43"/>
-      <c r="AN7" s="33"/>
-    </row>
-    <row r="8" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="22"/>
+    </row>
+    <row r="8" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="17" t="s">
+      <c r="T8" s="19"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="43"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="15" t="s">
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="AJ8" s="43"/>
-      <c r="AK8" s="43"/>
-      <c r="AL8" s="34" t="s">
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="33"/>
-    </row>
-    <row r="9" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="22"/>
+    </row>
+    <row r="9" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="43"/>
-      <c r="AF9" s="43"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="43"/>
-      <c r="AK9" s="43"/>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="43"/>
-      <c r="AN9" s="33"/>
-    </row>
-    <row r="10" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="T9" s="19"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="23"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="22"/>
+    </row>
+    <row r="10" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5100,29 +5137,29 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="43"/>
-      <c r="AC10" s="43"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="43"/>
-      <c r="AF10" s="43"/>
-      <c r="AG10" s="43"/>
-      <c r="AH10" s="43"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
       <c r="AI10" s="7"/>
-      <c r="AJ10" s="43"/>
-      <c r="AK10" s="43"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="43"/>
-      <c r="AN10" s="33"/>
-    </row>
-    <row r="11" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="22"/>
+    </row>
+    <row r="11" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5132,29 +5169,29 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
       <c r="Y11" s="6"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="43"/>
-      <c r="AC11" s="43"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="43"/>
-      <c r="AF11" s="43"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="43"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
       <c r="AI11" s="8"/>
-      <c r="AJ11" s="43"/>
-      <c r="AK11" s="43"/>
-      <c r="AL11" s="43"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="33"/>
-    </row>
-    <row r="12" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="22"/>
+    </row>
+    <row r="12" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5164,29 +5201,29 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="43"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="43"/>
-      <c r="AF12" s="43"/>
-      <c r="AG12" s="43"/>
-      <c r="AH12" s="43"/>
-      <c r="AI12" s="43"/>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="33"/>
-    </row>
-    <row r="13" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="19"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="22"/>
+    </row>
+    <row r="13" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5196,239 +5233,239 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="43"/>
-      <c r="AJ13" s="43"/>
-      <c r="AK13" s="43"/>
-      <c r="AL13" s="43"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="33"/>
-    </row>
-    <row r="14" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="T13" s="19"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="22"/>
+    </row>
+    <row r="14" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A14" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="42"/>
-    </row>
-    <row r="15" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="47"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="31"/>
+    </row>
+    <row r="15" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A15" s="36"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="47"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="33"/>
-    </row>
-    <row r="21" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A18" s="36"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A19" s="36"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A20" s="36"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="33"/>
-    </row>
-    <row r="22" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A22" s="36"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="33"/>
-    </row>
-    <row r="23" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:40" ht="27.9" customHeight="1">
+      <c r="A23" s="36"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="33"/>
-    </row>
-    <row r="24" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="42"/>
-    </row>
-    <row r="25" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="23"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+    </row>
+    <row r="25" spans="1:40" ht="27.9" customHeight="1">
       <c r="A25" t="s">
-        <v>193</v>
-      </c>
-      <c r="U25" s="27"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="28"/>
-      <c r="AD25" s="28"/>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28"/>
-      <c r="AG25" s="28"/>
-      <c r="AH25" s="28"/>
-      <c r="AI25" s="28"/>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28"/>
-      <c r="AM25" s="28"/>
-      <c r="AN25" s="29"/>
-    </row>
-    <row r="26" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="U25" s="16"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="18"/>
+    </row>
+    <row r="26" spans="1:40" ht="27.9" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5437,28 +5474,28 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="31"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="33"/>
-    </row>
-    <row r="27" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U26" s="19"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="21"/>
+      <c r="AC26" s="21"/>
+      <c r="AD26" s="21"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="21"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="21"/>
+      <c r="AI26" s="21"/>
+      <c r="AJ26" s="21"/>
+      <c r="AK26" s="21"/>
+      <c r="AL26" s="21"/>
+      <c r="AM26" s="21"/>
+      <c r="AN26" s="22"/>
+    </row>
+    <row r="27" spans="1:40" ht="27.9" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5469,36 +5506,36 @@
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="2"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="34" t="s">
+      <c r="U27" s="19"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="34" t="s">
+      <c r="Y27" s="23"/>
+      <c r="Z27" s="23"/>
+      <c r="AA27" s="23"/>
+      <c r="AB27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AC27" s="34"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="34" t="s">
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="21"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="21"/>
+      <c r="AG27" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="34"/>
-      <c r="AK27" s="34" t="s">
+      <c r="AH27" s="23"/>
+      <c r="AI27" s="23"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="AL27" s="34"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="33"/>
-    </row>
-    <row r="28" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL27" s="23"/>
+      <c r="AM27" s="21"/>
+      <c r="AN27" s="22"/>
+    </row>
+    <row r="28" spans="1:40" ht="27.9" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5509,32 +5546,32 @@
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="2"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34" t="s">
+      <c r="U28" s="19"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34" t="s">
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="23"/>
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="33"/>
-    </row>
-    <row r="29" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL28" s="23"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="22"/>
+    </row>
+    <row r="29" spans="1:40" ht="27.9" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5545,32 +5582,32 @@
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="2"/>
-      <c r="U29" s="30"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34" t="s">
+      <c r="U29" s="19"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="21"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34" t="s">
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="21"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="21"/>
+      <c r="AG29" s="23"/>
+      <c r="AH29" s="23"/>
+      <c r="AI29" s="23"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="33"/>
-    </row>
-    <row r="30" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL29" s="23"/>
+      <c r="AM29" s="21"/>
+      <c r="AN29" s="22"/>
+    </row>
+    <row r="30" spans="1:40" ht="27.9" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5579,28 +5616,28 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="2"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="33"/>
-    </row>
-    <row r="31" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="U30" s="19"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="21"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="23"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="23"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="23"/>
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="22"/>
+    </row>
+    <row r="31" spans="1:40" ht="27.9" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5609,31 +5646,31 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2"/>
-      <c r="U31" s="30"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="33"/>
-    </row>
-    <row r="32" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="19"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
+      <c r="AA31" s="23"/>
+      <c r="AB31" s="23"/>
+      <c r="AC31" s="23"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="23"/>
+      <c r="AH31" s="23"/>
+      <c r="AI31" s="23"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="23"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="22"/>
+    </row>
+    <row r="32" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -5641,84 +5678,84 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="2"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="32"/>
-      <c r="AN32" s="33"/>
-    </row>
-    <row r="33" spans="2:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="19"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="23"/>
+      <c r="Y32" s="23"/>
+      <c r="Z32" s="23"/>
+      <c r="AA32" s="23"/>
+      <c r="AB32" s="23"/>
+      <c r="AC32" s="23"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="23"/>
+      <c r="AH32" s="23"/>
+      <c r="AI32" s="23"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="23"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="22"/>
+    </row>
+    <row r="33" spans="2:40" ht="27.9" customHeight="1" thickBot="1">
       <c r="B33" s="2"/>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="20" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="20"/>
+      <c r="H33" s="47"/>
       <c r="I33" s="2"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="35" t="s">
+      <c r="U33" s="19"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Y33" s="23" t="s">
+      <c r="Y33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="36" t="s">
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AB33" s="37" t="s">
+      <c r="AB33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AC33" s="38" t="s">
+      <c r="AC33" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="35" t="s">
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH33" s="23" t="s">
+      <c r="AH33" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="AI33" s="23"/>
-      <c r="AJ33" s="36" t="s">
+      <c r="AI33" s="39"/>
+      <c r="AJ33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AK33" s="37" t="s">
+      <c r="AK33" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AL33" s="38" t="s">
+      <c r="AL33" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AM33" s="32"/>
-      <c r="AN33" s="33"/>
-    </row>
-    <row r="34" spans="2:40" ht="27.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="22"/>
+    </row>
+    <row r="34" spans="2:40" ht="27.9" customHeight="1" thickTop="1" thickBot="1">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5729,9 +5766,9 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="2"/>
-      <c r="U34" s="30"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="21"/>
       <c r="X34" s="12" t="s">
         <v>41</v>
       </c>
@@ -5750,21 +5787,21 @@
       <c r="AC34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39" t="s">
+      <c r="AD34" s="21"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="21"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
-      <c r="AK34" s="39"/>
-      <c r="AL34" s="39"/>
-      <c r="AM34" s="32"/>
-      <c r="AN34" s="33"/>
-    </row>
-    <row r="35" spans="2:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="21"/>
+      <c r="AN34" s="22"/>
+    </row>
+    <row r="35" spans="2:40" ht="27.9" customHeight="1" thickTop="1">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5773,151 +5810,151 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="U35" s="30"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-      <c r="AB35" s="32"/>
-      <c r="AC35" s="32"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="32"/>
-      <c r="AK35" s="32"/>
-      <c r="AL35" s="32"/>
-      <c r="AM35" s="32"/>
-      <c r="AN35" s="33"/>
-    </row>
-    <row r="36" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U36" s="30"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="32"/>
-      <c r="AC36" s="32"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="32"/>
-      <c r="AK36" s="32"/>
-      <c r="AL36" s="32"/>
-      <c r="AM36" s="32"/>
-      <c r="AN36" s="33"/>
-    </row>
-    <row r="37" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U37" s="30"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-      <c r="AB37" s="32"/>
-      <c r="AC37" s="32"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="32"/>
-      <c r="AK37" s="32"/>
-      <c r="AL37" s="32"/>
-      <c r="AM37" s="32"/>
-      <c r="AN37" s="33"/>
-    </row>
-    <row r="38" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U38" s="30"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-      <c r="AB38" s="32"/>
-      <c r="AC38" s="32"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="32"/>
-      <c r="AK38" s="32"/>
-      <c r="AL38" s="32"/>
-      <c r="AM38" s="32"/>
-      <c r="AN38" s="33"/>
-    </row>
-    <row r="39" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="U39" s="30"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-      <c r="AN39" s="33"/>
-    </row>
-    <row r="40" spans="2:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="U40" s="40"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-      <c r="AB40" s="41"/>
-      <c r="AC40" s="41"/>
-      <c r="AD40" s="41"/>
-      <c r="AE40" s="41"/>
-      <c r="AF40" s="41"/>
-      <c r="AG40" s="41"/>
-      <c r="AH40" s="41"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="41"/>
-      <c r="AM40" s="41"/>
-      <c r="AN40" s="42"/>
-    </row>
-    <row r="41" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="22"/>
+    </row>
+    <row r="36" spans="2:40" ht="27.9" customHeight="1">
+      <c r="U36" s="19"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
+      <c r="AD36" s="21"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="21"/>
+      <c r="AG36" s="21"/>
+      <c r="AH36" s="21"/>
+      <c r="AI36" s="21"/>
+      <c r="AJ36" s="21"/>
+      <c r="AK36" s="21"/>
+      <c r="AL36" s="21"/>
+      <c r="AM36" s="21"/>
+      <c r="AN36" s="22"/>
+    </row>
+    <row r="37" spans="2:40" ht="27.9" customHeight="1">
+      <c r="U37" s="19"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
+      <c r="AD37" s="21"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="21"/>
+      <c r="AG37" s="21"/>
+      <c r="AH37" s="21"/>
+      <c r="AI37" s="21"/>
+      <c r="AJ37" s="21"/>
+      <c r="AK37" s="21"/>
+      <c r="AL37" s="21"/>
+      <c r="AM37" s="21"/>
+      <c r="AN37" s="22"/>
+    </row>
+    <row r="38" spans="2:40" ht="27.9" customHeight="1">
+      <c r="U38" s="19"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
+      <c r="AD38" s="21"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="21"/>
+      <c r="AG38" s="21"/>
+      <c r="AH38" s="21"/>
+      <c r="AI38" s="21"/>
+      <c r="AJ38" s="21"/>
+      <c r="AK38" s="21"/>
+      <c r="AL38" s="21"/>
+      <c r="AM38" s="21"/>
+      <c r="AN38" s="22"/>
+    </row>
+    <row r="39" spans="2:40" ht="27.9" customHeight="1">
+      <c r="U39" s="19"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="21"/>
+      <c r="AG39" s="21"/>
+      <c r="AH39" s="21"/>
+      <c r="AI39" s="21"/>
+      <c r="AJ39" s="21"/>
+      <c r="AK39" s="21"/>
+      <c r="AL39" s="21"/>
+      <c r="AM39" s="21"/>
+      <c r="AN39" s="22"/>
+    </row>
+    <row r="40" spans="2:40" ht="27.9" customHeight="1" thickBot="1">
+      <c r="U40" s="29"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="31"/>
+    </row>
+    <row r="41" spans="2:40" ht="27.9" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="Y33:Z33"/>
     <mergeCell ref="AH33:AI33"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="AI8:AI9"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5927,30 +5964,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B8187A-9EF2-4507-BE81-CD1D72F3B85F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="12.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34.75" style="9" customWidth="1"/>
-    <col min="6" max="7" width="25.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" style="9" customWidth="1"/>
+    <col min="6" max="7" width="25.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.21875" style="9" customWidth="1"/>
     <col min="12" max="12" width="13" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5991,7 +6028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -6032,7 +6069,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -6061,7 +6098,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="28.8">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -6102,7 +6139,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -6110,7 +6147,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="9">
         <v>0</v>
       </c>
@@ -6118,7 +6155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" s="9">
         <v>1</v>
       </c>
@@ -6126,12 +6163,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="9">
         <v>0</v>
       </c>
@@ -6139,7 +6176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
@@ -6154,27 +6191,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF0DEC0-CD06-4FBE-ACC4-C961BCD219B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="2" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="2.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="22.875" customWidth="1"/>
-    <col min="10" max="10" width="29.375" customWidth="1"/>
+    <col min="6" max="6" width="2.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6182,7 +6219,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>74</v>
@@ -6206,10 +6243,10 @@
         <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6217,7 +6254,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -6244,7 +6281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1">
       <c r="A3">
         <v>201</v>
       </c>
@@ -6276,23 +6313,23 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1">
       <c r="A4">
         <v>202</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="50" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1">
       <c r="A5">
         <v>203</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="50" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1">
       <c r="A6">
         <v>204</v>
       </c>
@@ -6300,23 +6337,23 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15" customHeight="1">
       <c r="A7">
         <v>205</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1">
       <c r="A9">
         <v>207</v>
       </c>
@@ -6324,23 +6361,23 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10">
         <v>208</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="50" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11">
         <v>209</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12">
         <v>210</v>
       </c>
@@ -6348,15 +6385,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13">
         <v>211</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14">
         <v>212</v>
       </c>
@@ -6364,83 +6401,83 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1">
       <c r="A15">
         <v>213</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="50" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1">
       <c r="A16">
         <v>214</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="15" customHeight="1">
       <c r="A17">
         <v>215</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="50" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" customHeight="1">
       <c r="A18">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" customHeight="1">
       <c r="A19">
         <v>217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="50" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="15" customHeight="1">
       <c r="A20">
         <v>218</v>
       </c>
-      <c r="B20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1">
       <c r="A21">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="50" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" ht="15" customHeight="1">
       <c r="A22">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="15" customHeight="1">
       <c r="A23">
         <v>221</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="50" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" ht="15" customHeight="1">
       <c r="A24">
         <v>222</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="50" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6452,41 +6489,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FD22CC-4100-466B-A3FE-F6F98C897682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
         <v>132</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
       <c r="C2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6494,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6508,7 +6545,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6516,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6524,7 +6561,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6532,132 +6569,132 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6669,163 +6706,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B520B7E5-04AB-4169-B0D4-551EE898E917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="55.375" customWidth="1"/>
+    <col min="9" max="9" width="55.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="20" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="47"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
       <c r="A12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" t="s">
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="H15" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="I15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="H16" s="49"/>
+      <c r="I16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9">
+      <c r="H17" s="49"/>
+      <c r="I17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9">
+      <c r="H18" s="49"/>
+      <c r="I18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9">
+      <c r="H19" s="49"/>
+      <c r="I19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9">
+      <c r="H20" s="49"/>
+    </row>
+    <row r="21" spans="8:9">
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="8:9">
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="8:9">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="8:9">
+      <c r="H24" s="49"/>
+    </row>
+    <row r="25" spans="8:9">
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="8:9">
+      <c r="H26" s="49" t="s">
+        <v>176</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9">
+      <c r="H27" s="49"/>
+      <c r="I27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H15" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H16" s="24"/>
-      <c r="I16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" s="24"/>
-      <c r="I17" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="24"/>
-      <c r="I18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="24"/>
-      <c r="I19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H21" s="24"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="24"/>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H26" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H27" s="24"/>
-      <c r="I27" t="s">
+    <row r="28" spans="8:9">
+      <c r="H28" s="49"/>
+      <c r="I28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H28" s="24"/>
-      <c r="I28" t="s">
+    <row r="29" spans="8:9">
+      <c r="H29" s="49"/>
+      <c r="I29" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H29" s="24"/>
-      <c r="I29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H30" s="24"/>
+    <row r="30" spans="8:9">
+      <c r="H30" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6846,27 +6883,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8953412F-1DCA-4ED2-BC53-DCB83C81E908}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="1"/>
-    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="6" max="6" width="8.6640625" style="1"/>
+    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6892,7 +6929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -6918,7 +6955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -6944,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -6970,180 +7007,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="1">
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="1">
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="1">
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="1">
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="1">
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1">
       <c r="A18" s="1">
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1">
       <c r="A19" s="1">
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" customHeight="1">
       <c r="A20" s="1">
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/相关功能表格整理.xlsx
+++ b/相关功能表格整理.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GGJ2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3843E6BB-E9D0-4339-AE04-EB3A6ACE5347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="地图模块" sheetId="3" r:id="rId1"/>
@@ -15,81 +21,43 @@
     <sheet name="道具-暂时删除" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={3D77F110-0C48-4638-B315-A4E70463675D}</author>
     <author>tc={CF1DE02A-08AB-4AB5-8FC7-B98318E09D8B}</author>
     <author>tc={4623F005-45BB-48DB-929B-73EB150814D2}</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[线程批注]
+        <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     视情况引用新表里的ID
 为0则无技能</t>
-        </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="1">
+    <comment ref="F1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[线程批注]
+        <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     引用-所有道具模块里的tool_ID
 为0则无道具</t>
-        </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="2">
+    <comment ref="I1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[线程批注]
+        <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     0为无影响
@@ -97,7 +65,6 @@
 2作用于攻击
 3作用于道具
 4作用于逃跑</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -105,23 +72,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={1DCEB9F3-18AF-4F53-8D12-87BE26ED2202}</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[线程批注]
+        <t>[线程批注]
 你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
 注释:
     0为无影响
@@ -129,7 +87,6 @@
 2作用于攻击
 3作用于道具
 4作用于逃跑</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -137,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="190">
   <si>
     <t>属性：</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -578,10 +535,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小猫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>数学卷子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -590,10 +543,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>劳动委员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>本心</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,14 +555,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>说闲话的同学</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校草</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>校花</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -643,10 +584,6 @@
   </si>
   <si>
     <t>上司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>好心的同学</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -919,8 +856,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1377,20 +1314,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1404,14 +1329,26 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1450,7 +1387,7 @@
         <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC05CFB-CD1B-4DA5-B12E-BA4ABC4F938D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC05CFB-CD1B-4DA5-B12E-BA4ABC4F938D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1399,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="2682" b="96935" l="3462" r="97308">
@@ -1543,7 +1480,7 @@
         <xdr:cNvPr id="5" name="矩形: 圆角 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F6D34A0-A8C8-472C-939A-9A0E10C5E2A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6D34A0-A8C8-472C-939A-9A0E10C5E2A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1557,7 @@
         <xdr:cNvPr id="6" name="矩形: 圆角 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6D5CA8D-D560-476F-AF9C-10ADCA0B6CE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D5CA8D-D560-476F-AF9C-10ADCA0B6CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1697,7 +1634,7 @@
         <xdr:cNvPr id="7" name="矩形: 圆角 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C0AE06C-13CF-4424-8A85-E75C82659CA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C0AE06C-13CF-4424-8A85-E75C82659CA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1711,7 @@
         <xdr:cNvPr id="8" name="图片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60CF4464-0850-48D3-84CE-39D2F68D0882}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60CF4464-0850-48D3-84CE-39D2F68D0882}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1786,7 +1723,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -1834,7 +1771,7 @@
         <xdr:cNvPr id="9" name="图片 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E097BFD4-3687-4A21-9BA7-3C80B974D794}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E097BFD4-3687-4A21-9BA7-3C80B974D794}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1783,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -1899,7 +1836,7 @@
         <xdr:cNvPr id="10" name="箭头: 右 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AD44F8D-E8F3-4A66-B4A9-A83EF07FC937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD44F8D-E8F3-4A66-B4A9-A83EF07FC937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1896,7 @@
         <xdr:cNvPr id="15" name="图片 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A1D72D-7D3C-45A8-925A-5E193EE94432}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A1D72D-7D3C-45A8-925A-5E193EE94432}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +1908,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
@@ -2024,7 +1961,7 @@
         <xdr:cNvPr id="16" name="图片 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{99801BC7-B420-4979-AB49-577BA554C6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99801BC7-B420-4979-AB49-577BA554C6CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +1973,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2089,7 +2026,7 @@
         <xdr:cNvPr id="17" name="矩形: 圆角 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5E529EB9-A430-4393-8F2D-E68E510EA2BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E529EB9-A430-4393-8F2D-E68E510EA2BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2089,7 @@
         <xdr:cNvPr id="18" name="矩形: 圆角 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A21D38E3-75E5-4090-BA69-50A70FC3C57A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A21D38E3-75E5-4090-BA69-50A70FC3C57A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,7 +2152,7 @@
         <xdr:cNvPr id="20" name="流程图: 决策 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B6435D-BD75-409D-83FB-E4CC9AB078F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B6435D-BD75-409D-83FB-E4CC9AB078F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2278,7 +2215,7 @@
         <xdr:cNvPr id="22" name="直接箭头连接符 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{346F9F5B-3221-4F4F-AE86-0A112991CEAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{346F9F5B-3221-4F4F-AE86-0A112991CEAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2271,7 @@
         <xdr:cNvPr id="39" name="流程图: 可选过程 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5C95A2B4-A7D1-41A5-9BBD-04F80794150A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C95A2B4-A7D1-41A5-9BBD-04F80794150A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2334,7 @@
         <xdr:cNvPr id="41" name="直接箭头连接符 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AAF7E36-7007-4F66-8BEC-44B11BCE48E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAF7E36-7007-4F66-8BEC-44B11BCE48E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,7 +2390,7 @@
         <xdr:cNvPr id="43" name="流程图: 可选过程 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CB847CD3-DF23-4A36-AA79-FD3DDF26732C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB847CD3-DF23-4A36-AA79-FD3DDF26732C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2461,7 @@
         <xdr:cNvPr id="45" name="直接箭头连接符 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B971A8F-7C65-4B47-9362-C306D5D5329A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B971A8F-7C65-4B47-9362-C306D5D5329A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2580,7 +2517,7 @@
         <xdr:cNvPr id="46" name="矩形: 圆角 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CBD4004A-BBD4-4823-B230-70178861CC89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD4004A-BBD4-4823-B230-70178861CC89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2580,7 @@
         <xdr:cNvPr id="48" name="直接箭头连接符 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17741A14-D91C-4249-B325-B9F4B2679937}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17741A14-D91C-4249-B325-B9F4B2679937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2631,7 @@
         <xdr:cNvPr id="64" name="图片 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{93490920-8EC1-4076-86D3-A45A9D1A9BE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93490920-8EC1-4076-86D3-A45A9D1A9BE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2643,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
@@ -2759,7 +2696,7 @@
         <xdr:cNvPr id="65" name="图片 64">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26D74526-1914-4061-BF43-D6544EF54D4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D74526-1914-4061-BF43-D6544EF54D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2771,7 +2708,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2819,7 +2756,7 @@
         <xdr:cNvPr id="69" name="图片 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55B81192-14F2-40B2-AC38-C291D6159CE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B81192-14F2-40B2-AC38-C291D6159CE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2768,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId7">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6076" b="59747" l="59072" r="92194">
@@ -2884,7 +2821,7 @@
         <xdr:cNvPr id="70" name="图片 69">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D780FD5-1D09-40F5-8ABB-2BBFFB0EFA51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D780FD5-1D09-40F5-8ABB-2BBFFB0EFA51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2896,7 +2833,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -2949,7 +2886,7 @@
         <xdr:cNvPr id="42" name="矩形: 圆角 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7DB18CD5-5BD7-4E9A-BDBB-0DFD61B1E2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DB18CD5-5BD7-4E9A-BDBB-0DFD61B1E2C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3012,7 +2949,7 @@
         <xdr:cNvPr id="47" name="流程图: 可选过程 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{53341089-1A31-4111-A0E7-05702B2B209C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53341089-1A31-4111-A0E7-05702B2B209C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3012,7 @@
         <xdr:cNvPr id="49" name="矩形: 圆角 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D46CB219-1FC5-4401-ADAA-3F8D97DE27D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D46CB219-1FC5-4401-ADAA-3F8D97DE27D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3075,7 @@
         <xdr:cNvPr id="50" name="流程图: 可选过程 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{732C4F12-13BB-46BE-9515-72D6BA7F3F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{732C4F12-13BB-46BE-9515-72D6BA7F3F91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3201,7 +3138,7 @@
         <xdr:cNvPr id="54" name="流程图: 决策 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65D4F0EC-27F2-45D7-969F-F3093645D98B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D4F0EC-27F2-45D7-969F-F3093645D98B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3264,7 +3201,7 @@
         <xdr:cNvPr id="32" name="直接箭头连接符 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BF883C65-FB31-4B6C-A0AB-E2DD54758ADC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF883C65-FB31-4B6C-A0AB-E2DD54758ADC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3257,7 @@
         <xdr:cNvPr id="34" name="直接箭头连接符 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{214C4C5A-C19F-401F-99A3-C9EA1A646193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214C4C5A-C19F-401F-99A3-C9EA1A646193}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3379,7 +3316,7 @@
         <xdr:cNvPr id="36" name="直接箭头连接符 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{410FF488-28B2-4278-A88C-500C380765EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410FF488-28B2-4278-A88C-500C380765EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,7 +3372,7 @@
         <xdr:cNvPr id="59" name="流程图: 可选过程 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C366BECB-E9E6-4E81-9BA4-1A04456B50D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C366BECB-E9E6-4E81-9BA4-1A04456B50D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3498,7 +3435,7 @@
         <xdr:cNvPr id="87" name="直接箭头连接符 86">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FEEF7D2E-6DF5-44D4-BDEA-354F3C75D00A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEEF7D2E-6DF5-44D4-BDEA-354F3C75D00A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3554,7 +3491,7 @@
         <xdr:cNvPr id="89" name="直接箭头连接符 88">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8A578564-F81C-40E6-90C5-6B3E133333E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A578564-F81C-40E6-90C5-6B3E133333E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3547,7 @@
         <xdr:cNvPr id="94" name="流程图: 决策 93">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A0E9B25-EECF-423F-83E8-42272008F03B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0E9B25-EECF-423F-83E8-42272008F03B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3673,7 +3610,7 @@
         <xdr:cNvPr id="101" name="直接箭头连接符 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8429CF0-D1D5-4F12-9F9A-6191A411C545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8429CF0-D1D5-4F12-9F9A-6191A411C545}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3729,7 +3666,7 @@
         <xdr:cNvPr id="109" name="直接箭头连接符 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{151AA652-E69E-44A5-81E2-B5AFF765C2D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151AA652-E69E-44A5-81E2-B5AFF765C2D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3788,7 +3725,7 @@
         <xdr:cNvPr id="110" name="矩形: 圆角 109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5F13AB9-F104-443B-81A4-423504373598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F13AB9-F104-443B-81A4-423504373598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3851,7 +3788,7 @@
         <xdr:cNvPr id="114" name="直接箭头连接符 113">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DBD9A1C-A7BD-4DD8-8BBB-A2F3B168B16D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBD9A1C-A7BD-4DD8-8BBB-A2F3B168B16D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3902,7 +3839,7 @@
         <xdr:cNvPr id="136" name="图片 135">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9150A3AF-ACD4-477C-ABD9-F718D54E3001}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9150A3AF-ACD4-477C-ABD9-F718D54E3001}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3914,7 +3851,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId4">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -3967,7 +3904,7 @@
         <xdr:cNvPr id="137" name="矩形: 圆角 136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B513B8D6-2A89-439C-A828-7D639DA312B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B513B8D6-2A89-439C-A828-7D639DA312B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +3967,7 @@
         <xdr:cNvPr id="138" name="矩形: 圆角 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{506E9C63-D234-4FDF-9B0C-5A8CF82F3E51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506E9C63-D234-4FDF-9B0C-5A8CF82F3E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4093,7 +4030,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DEFDC2B-3F91-4DEA-99B9-E0C12D368129}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DEFDC2B-3F91-4DEA-99B9-E0C12D368129}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4105,7 +4042,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
                 <a14:imgLayer r:embed="rId2">
                   <a14:imgEffect>
                     <a14:backgroundRemoval t="6191" b="59706" l="9957" r="89936">
@@ -4158,7 +4095,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{69763428-2574-4716-8FFF-26B40988DDC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69763428-2574-4716-8FFF-26B40988DDC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4202,7 +4139,7 @@
         <xdr:cNvPr id="6" name="矩形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7BBA412-DDB8-476B-9EB9-77E47706DD6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BBA412-DDB8-476B-9EB9-77E47706DD6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4268,7 +4205,7 @@
         <xdr:cNvPr id="8" name="直接箭头连接符 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D52A1879-3FAB-4A80-86AD-87804DC11DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52A1879-3FAB-4A80-86AD-87804DC11DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4323,7 +4260,7 @@
         <xdr:cNvPr id="10" name="矩形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0E0F30C1-E4B0-4BD4-8883-64A94AEECBCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E0F30C1-E4B0-4BD4-8883-64A94AEECBCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4389,7 +4326,7 @@
         <xdr:cNvPr id="11" name="直接箭头连接符 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1592332A-D688-4785-8639-69E977A3F2A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1592332A-D688-4785-8639-69E977A3F2A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4442,7 +4379,7 @@
         <xdr:cNvPr id="13" name="文本框 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AF2B190-0ECF-4FD6-8F4C-782820C70331}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF2B190-0ECF-4FD6-8F4C-782820C70331}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4792,7 +4729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4831,27 +4768,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="56.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="56.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="1" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="27.9" customHeight="1">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="T2" s="16"/>
       <c r="U2" s="17"/>
@@ -4875,7 +4812,7 @@
       <c r="AM2" s="17"/>
       <c r="AN2" s="18"/>
     </row>
-    <row r="3" spans="1:40" ht="27.9" customHeight="1">
+    <row r="3" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -4907,7 +4844,7 @@
       <c r="AM3" s="32"/>
       <c r="AN3" s="22"/>
     </row>
-    <row r="4" spans="1:40" ht="27.9" customHeight="1">
+    <row r="4" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -4943,7 +4880,7 @@
       <c r="AM4" s="32"/>
       <c r="AN4" s="22"/>
     </row>
-    <row r="5" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="5" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -4979,12 +4916,12 @@
       <c r="AM5" s="32"/>
       <c r="AN5" s="22"/>
     </row>
-    <row r="6" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
+    <row r="6" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="4"/>
@@ -4996,7 +4933,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="32"/>
       <c r="X6" s="32"/>
-      <c r="Y6" s="40" t="s">
+      <c r="Y6" s="44" t="s">
         <v>12</v>
       </c>
       <c r="Z6" s="32"/>
@@ -5010,7 +4947,7 @@
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
-      <c r="AI6" s="42"/>
+      <c r="AI6" s="47"/>
       <c r="AJ6" s="32"/>
       <c r="AK6" s="32"/>
       <c r="AL6" s="23" t="s">
@@ -5019,12 +4956,12 @@
       <c r="AM6" s="32"/>
       <c r="AN6" s="22"/>
     </row>
-    <row r="7" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="41"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -5034,7 +4971,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="32"/>
       <c r="X7" s="32"/>
-      <c r="Y7" s="41"/>
+      <c r="Y7" s="45"/>
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
       <c r="AB7" s="34" t="s">
@@ -5046,7 +4983,7 @@
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
-      <c r="AI7" s="43"/>
+      <c r="AI7" s="48"/>
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
       <c r="AL7" s="23" t="s">
@@ -5055,12 +4992,12 @@
       <c r="AM7" s="32"/>
       <c r="AN7" s="22"/>
     </row>
-    <row r="8" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4"/>
@@ -5072,7 +5009,7 @@
       <c r="V8" s="32"/>
       <c r="W8" s="32"/>
       <c r="X8" s="32"/>
-      <c r="Y8" s="42" t="s">
+      <c r="Y8" s="47" t="s">
         <v>34</v>
       </c>
       <c r="Z8" s="32"/>
@@ -5084,7 +5021,7 @@
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
-      <c r="AI8" s="40" t="s">
+      <c r="AI8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="AJ8" s="32"/>
@@ -5095,12 +5032,12 @@
       <c r="AM8" s="32"/>
       <c r="AN8" s="22"/>
     </row>
-    <row r="9" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="9" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="41"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -5110,7 +5047,7 @@
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
       <c r="X9" s="32"/>
-      <c r="Y9" s="43"/>
+      <c r="Y9" s="48"/>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
       <c r="AB9" s="23"/>
@@ -5120,14 +5057,14 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
-      <c r="AI9" s="41"/>
+      <c r="AI9" s="45"/>
       <c r="AJ9" s="32"/>
       <c r="AK9" s="32"/>
       <c r="AL9" s="23"/>
       <c r="AM9" s="32"/>
       <c r="AN9" s="22"/>
     </row>
-    <row r="10" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
+    <row r="10" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -5159,7 +5096,7 @@
       <c r="AM10" s="32"/>
       <c r="AN10" s="22"/>
     </row>
-    <row r="11" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="11" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -5191,7 +5128,7 @@
       <c r="AM11" s="32"/>
       <c r="AN11" s="22"/>
     </row>
-    <row r="12" spans="1:40" ht="27.9" customHeight="1" thickTop="1">
+    <row r="12" spans="1:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -5223,7 +5160,7 @@
       <c r="AM12" s="32"/>
       <c r="AN12" s="22"/>
     </row>
-    <row r="13" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="13" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5255,7 +5192,7 @@
       <c r="AM13" s="32"/>
       <c r="AN13" s="22"/>
     </row>
-    <row r="14" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="14" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>35</v>
       </c>
@@ -5292,7 +5229,7 @@
       <c r="AM14" s="30"/>
       <c r="AN14" s="31"/>
     </row>
-    <row r="15" spans="1:40" ht="27.9" customHeight="1">
+    <row r="15" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="36"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -5306,7 +5243,7 @@
       <c r="K15" s="20"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:40" ht="27.9" customHeight="1">
+    <row r="16" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="36"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23" t="s">
@@ -5322,7 +5259,7 @@
       <c r="K16" s="20"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:40" ht="27.9" customHeight="1">
+    <row r="17" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="36"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -5336,7 +5273,7 @@
       <c r="K17" s="20"/>
       <c r="L17" s="22"/>
     </row>
-    <row r="18" spans="1:40" ht="27.9" customHeight="1">
+    <row r="18" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
@@ -5350,7 +5287,7 @@
       <c r="K18" s="20"/>
       <c r="L18" s="22"/>
     </row>
-    <row r="19" spans="1:40" ht="27.9" customHeight="1">
+    <row r="19" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="36"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
@@ -5364,7 +5301,7 @@
       <c r="K19" s="20"/>
       <c r="L19" s="22"/>
     </row>
-    <row r="20" spans="1:40" ht="27.9" customHeight="1">
+    <row r="20" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="36"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
@@ -5378,7 +5315,7 @@
       <c r="K20" s="20"/>
       <c r="L20" s="22"/>
     </row>
-    <row r="21" spans="1:40" ht="27.9" customHeight="1">
+    <row r="21" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="36"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23" t="s">
@@ -5394,7 +5331,7 @@
       <c r="K21" s="20"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:40" ht="27.9" customHeight="1">
+    <row r="22" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="36"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23" t="s">
@@ -5410,7 +5347,7 @@
       <c r="K22" s="20"/>
       <c r="L22" s="22"/>
     </row>
-    <row r="23" spans="1:40" ht="27.9" customHeight="1">
+    <row r="23" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="36"/>
       <c r="B23" s="23"/>
       <c r="C23" s="23" t="s">
@@ -5426,7 +5363,7 @@
       <c r="K23" s="20"/>
       <c r="L23" s="22"/>
     </row>
-    <row r="24" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="24" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
@@ -5440,9 +5377,9 @@
       <c r="K24" s="30"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:40" ht="27.9" customHeight="1">
+    <row r="25" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="17"/>
@@ -5465,7 +5402,7 @@
       <c r="AM25" s="17"/>
       <c r="AN25" s="18"/>
     </row>
-    <row r="26" spans="1:40" ht="27.9" customHeight="1">
+    <row r="26" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5495,7 +5432,7 @@
       <c r="AM26" s="21"/>
       <c r="AN26" s="22"/>
     </row>
-    <row r="27" spans="1:40" ht="27.9" customHeight="1">
+    <row r="27" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -5535,7 +5472,7 @@
       <c r="AM27" s="21"/>
       <c r="AN27" s="22"/>
     </row>
-    <row r="28" spans="1:40" ht="27.9" customHeight="1">
+    <row r="28" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -5571,7 +5508,7 @@
       <c r="AM28" s="21"/>
       <c r="AN28" s="22"/>
     </row>
-    <row r="29" spans="1:40" ht="27.9" customHeight="1">
+    <row r="29" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -5607,7 +5544,7 @@
       <c r="AM29" s="21"/>
       <c r="AN29" s="22"/>
     </row>
-    <row r="30" spans="1:40" ht="27.9" customHeight="1">
+    <row r="30" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -5637,7 +5574,7 @@
       <c r="AM30" s="21"/>
       <c r="AN30" s="22"/>
     </row>
-    <row r="31" spans="1:40" ht="27.9" customHeight="1">
+    <row r="31" spans="1:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -5667,10 +5604,10 @@
       <c r="AM31" s="21"/>
       <c r="AN31" s="22"/>
     </row>
-    <row r="32" spans="1:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="32" spans="1:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -5699,20 +5636,20 @@
       <c r="AM32" s="21"/>
       <c r="AN32" s="22"/>
     </row>
-    <row r="33" spans="2:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="33" spans="2:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47" t="s">
+      <c r="D33" s="40"/>
+      <c r="E33" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="47"/>
+      <c r="H33" s="43"/>
       <c r="I33" s="2"/>
       <c r="U33" s="19"/>
       <c r="V33" s="20"/>
@@ -5720,10 +5657,10 @@
       <c r="X33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="Y33" s="39" t="s">
+      <c r="Y33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Z33" s="39"/>
+      <c r="Z33" s="46"/>
       <c r="AA33" s="25" t="s">
         <v>40</v>
       </c>
@@ -5739,10 +5676,10 @@
       <c r="AG33" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AH33" s="39" t="s">
+      <c r="AH33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AI33" s="39"/>
+      <c r="AI33" s="46"/>
       <c r="AJ33" s="25" t="s">
         <v>40</v>
       </c>
@@ -5755,7 +5692,7 @@
       <c r="AM33" s="21"/>
       <c r="AN33" s="22"/>
     </row>
-    <row r="34" spans="2:40" ht="27.9" customHeight="1" thickTop="1" thickBot="1">
+    <row r="34" spans="2:40" ht="27.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -5801,7 +5738,7 @@
       <c r="AM34" s="21"/>
       <c r="AN34" s="22"/>
     </row>
-    <row r="35" spans="2:40" ht="27.9" customHeight="1" thickTop="1">
+    <row r="35" spans="2:40" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5831,7 +5768,7 @@
       <c r="AM35" s="21"/>
       <c r="AN35" s="22"/>
     </row>
-    <row r="36" spans="2:40" ht="27.9" customHeight="1">
+    <row r="36" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U36" s="19"/>
       <c r="V36" s="20"/>
       <c r="W36" s="21"/>
@@ -5853,7 +5790,7 @@
       <c r="AM36" s="21"/>
       <c r="AN36" s="22"/>
     </row>
-    <row r="37" spans="2:40" ht="27.9" customHeight="1">
+    <row r="37" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U37" s="19"/>
       <c r="V37" s="20"/>
       <c r="W37" s="21"/>
@@ -5875,7 +5812,7 @@
       <c r="AM37" s="21"/>
       <c r="AN37" s="22"/>
     </row>
-    <row r="38" spans="2:40" ht="27.9" customHeight="1">
+    <row r="38" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U38" s="19"/>
       <c r="V38" s="20"/>
       <c r="W38" s="21"/>
@@ -5897,7 +5834,7 @@
       <c r="AM38" s="21"/>
       <c r="AN38" s="22"/>
     </row>
-    <row r="39" spans="2:40" ht="27.9" customHeight="1">
+    <row r="39" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="U39" s="19"/>
       <c r="V39" s="20"/>
       <c r="W39" s="21"/>
@@ -5919,7 +5856,7 @@
       <c r="AM39" s="21"/>
       <c r="AN39" s="22"/>
     </row>
-    <row r="40" spans="2:40" ht="27.9" customHeight="1" thickBot="1">
+    <row r="40" spans="2:40" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="U40" s="29"/>
       <c r="V40" s="30"/>
       <c r="W40" s="30"/>
@@ -5941,20 +5878,20 @@
       <c r="AM40" s="30"/>
       <c r="AN40" s="31"/>
     </row>
-    <row r="41" spans="2:40" ht="27.9" customHeight="1"/>
+    <row r="41" spans="2:40" ht="27.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
     <mergeCell ref="Y33:Z33"/>
     <mergeCell ref="AH33:AI33"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="AI8:AI9"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5964,30 +5901,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="12.88671875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="34.77734375" style="9" customWidth="1"/>
-    <col min="6" max="7" width="25.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.44140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="20.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.77734375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="34.75" style="9" customWidth="1"/>
+    <col min="6" max="7" width="25.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="9" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.25" style="9" customWidth="1"/>
     <col min="12" max="12" width="13" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="9" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -6028,7 +5965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -6069,7 +6006,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -6098,7 +6035,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8">
+    <row r="4" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
@@ -6139,7 +6076,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>66</v>
       </c>
@@ -6147,7 +6084,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>0</v>
       </c>
@@ -6155,7 +6092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="9">
         <v>1</v>
       </c>
@@ -6163,12 +6100,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="9">
         <v>0</v>
       </c>
@@ -6176,7 +6113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>70</v>
       </c>
@@ -6191,27 +6128,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="2.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" customWidth="1"/>
-    <col min="10" max="10" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="2.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="29.375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -6219,7 +6156,7 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>74</v>
@@ -6243,10 +6180,10 @@
         <v>91</v>
       </c>
       <c r="K1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -6254,7 +6191,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -6281,7 +6218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>201</v>
       </c>
@@ -6313,217 +6250,178 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>202</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>203</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1">
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>204</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="39" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>205</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>206</v>
       </c>
-      <c r="B8" s="50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1">
+      <c r="B8" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>207</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>208</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="39" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>209</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="39" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>210</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>211</v>
       </c>
-      <c r="B13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1">
+      <c r="B13" s="39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>212</v>
       </c>
-      <c r="B14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1">
+      <c r="B14" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>213</v>
       </c>
-      <c r="B15" s="50" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1">
+      <c r="B15" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>214</v>
       </c>
-      <c r="B16" s="50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" customHeight="1">
+      <c r="B16" s="39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>215</v>
       </c>
-      <c r="B17" s="50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1">
+      <c r="B17" s="39" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>216</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1">
+      <c r="B18" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>217</v>
       </c>
-      <c r="B19" s="50" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1">
-      <c r="A20">
-        <v>218</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1">
-      <c r="A21">
-        <v>219</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1">
-      <c r="A22">
-        <v>220</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1">
-      <c r="A23">
-        <v>221</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1">
-      <c r="A24">
-        <v>222</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>115</v>
+      <c r="B19" s="39" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6531,10 +6429,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6545,7 +6443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6553,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6561,7 +6459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6569,132 +6467,132 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -6706,163 +6604,163 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="55.33203125" customWidth="1"/>
+    <col min="9" max="9" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="43"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="50"/>
+      <c r="I16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="50"/>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="50"/>
+      <c r="I18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="50"/>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="50"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="50"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="50"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="50"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="50"/>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="50"/>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="50" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1"/>
-    <row r="12" spans="1:9" ht="15" thickBot="1">
-      <c r="A12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="I26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="50"/>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="50"/>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="50"/>
+      <c r="I29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="H15" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="H16" s="49"/>
-      <c r="I16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="49"/>
-      <c r="I17" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="49"/>
-      <c r="I18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="49"/>
-      <c r="I19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="49"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="49"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="49"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="49"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="49"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="I26" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="49"/>
-      <c r="I27" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="49"/>
-      <c r="I28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="49"/>
-      <c r="I29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="49"/>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6883,27 +6781,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
-    <col min="2" max="2" width="10.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="12.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.625" style="1"/>
+    <col min="7" max="7" width="12.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -6929,7 +6827,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -6955,7 +6853,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
@@ -6981,7 +6879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>102</v>
       </c>
@@ -7007,180 +6905,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    </row>
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>105</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>106</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>110</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>116</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>117</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="45.75" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
